--- a/user_stories_v1.xlsx
+++ b/user_stories_v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-3920" yWindow="-23540" windowWidth="25360" windowHeight="14200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25360" windowHeight="14200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>User Stories</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Priority</t>
-  </si>
-  <si>
-    <t>As a user, I want to uploa a photo of 1 person, so that I can analyse it</t>
   </si>
   <si>
     <t>As a user, I want my photo to be analysed of 1 person, so that I can find out an emotion score</t>
@@ -149,6 +146,15 @@
   </si>
   <si>
     <t>data visualisation (react/spider diagram)</t>
+  </si>
+  <si>
+    <t>As a user, I want to upload a photo of 1 person, so that I can analyse it</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Time Estimation</t>
   </si>
 </sst>
 </file>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,12 +486,12 @@
     <col min="6" max="7" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -496,50 +502,71 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -547,13 +574,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -561,13 +591,16 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -575,13 +608,16 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -589,45 +625,51 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -635,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -643,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -651,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -659,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -667,27 +709,27 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/user_stories_v1.xlsx
+++ b/user_stories_v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25360" windowHeight="14200" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="25360" windowHeight="14200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>User Stories</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>As a user, I want to use my webcam to take the pictures, so that is is relevant live data</t>
-  </si>
-  <si>
-    <t>As a user, I want a picture to be taken from my webcam every 10 seconds, so that I can have real-time data</t>
   </si>
   <si>
     <t>As a user, I want my analysed crowd to be displayed in a positive index graph, so that I can track developments in positive emotion over time</t>
@@ -116,12 +113,6 @@
     <t>Parse JSON Data
 Extract &amp; Average emotions
 Static graph</t>
-  </si>
-  <si>
-    <t>Laptop webcam activated
-Take a pic button which takes a snapshot
-Stores snapshot locally
-Sends to API</t>
   </si>
   <si>
     <t>Start button
@@ -155,6 +146,25 @@
   </si>
   <si>
     <t>Time Estimation</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to activate my webcam, so that I can see the picture I want to take</t>
+  </si>
+  <si>
+    <t>Start webcam
+Laptop webcam activated
+Display live feed</t>
+  </si>
+  <si>
+    <t>6+?</t>
+  </si>
+  <si>
+    <t>Take a pic button which takes a snapshot
+Stores snapshot locally
+Sends to API</t>
+  </si>
+  <si>
+    <t>As a user, I want a picture to be taken from my webcam in a given interval so that I can have real-time data</t>
   </si>
 </sst>
 </file>
@@ -190,10 +200,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="67.33203125" customWidth="1"/>
+    <col min="3" max="3" width="99.1640625" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="45" customWidth="1"/>
@@ -491,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -503,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -511,13 +524,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,13 +544,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -551,13 +564,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -571,15 +584,18 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
@@ -588,50 +604,59 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>2</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -639,97 +664,117 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
+      <c r="A15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>30</v>
+      <c r="C22" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>31</v>
+      <c r="A24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/user_stories_v1.xlsx
+++ b/user_stories_v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="25360" windowHeight="14200" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>User Stories</t>
   </si>
@@ -156,15 +156,28 @@
 Display live feed</t>
   </si>
   <si>
-    <t>6+?</t>
-  </si>
-  <si>
     <t>Take a pic button which takes a snapshot
 Stores snapshot locally
 Sends to API</t>
   </si>
   <si>
     <t>As a user, I want a picture to be taken from my webcam in a given interval so that I can have real-time data</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to turn my webcam off and stop the feed, so that I have control over my data analysis</t>
+  </si>
+  <si>
+    <t>Stop Webcam
+Stop's calls to API</t>
+  </si>
+  <si>
+    <t>Time Took</t>
   </si>
 </sst>
 </file>
@@ -200,13 +213,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,7 +515,7 @@
     <col min="6" max="7" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -518,8 +534,14 @@
       <c r="F1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -538,8 +560,14 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -558,8 +586,12 @@
       <c r="F3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -578,8 +610,12 @@
       <c r="F4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -598,8 +634,14 @@
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -619,7 +661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -635,11 +677,11 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -647,19 +689,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -667,117 +709,140 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>7</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:H4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>